--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Ferrous sulfate - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Ferrous sulfate - all categories.xlsx
@@ -93,34 +93,34 @@
     <t>tier01TripleInformation/8/predicateName</t>
   </si>
   <si>
+    <t>4048501</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide</t>
+  </si>
+  <si>
+    <t>Chemicals &amp; Drugs</t>
+  </si>
+  <si>
+    <t>131802</t>
+  </si>
+  <si>
+    <t>eisendragees-ratiopharm</t>
+  </si>
+  <si>
+    <t>17479199</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
     <t>111931</t>
   </si>
   <si>
     <t>iron</t>
   </si>
   <si>
-    <t>Chemicals &amp; Drugs</t>
-  </si>
-  <si>
-    <t>2992895</t>
-  </si>
-  <si>
-    <t>eisensulfat stada</t>
-  </si>
-  <si>
-    <t>89294519</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>4048501</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide</t>
-  </si>
-  <si>
-    <t>83734302</t>
+    <t>17824281</t>
   </si>
   <si>
     <t>5058792</t>
@@ -129,28 +129,28 @@
     <t>ascorbic acid</t>
   </si>
   <si>
-    <t>84133273</t>
+    <t>17458592</t>
+  </si>
+  <si>
+    <t>18482827</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>19400927</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>84022217</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>83439905</t>
-  </si>
-  <si>
     <t>523228</t>
   </si>
   <si>
     <t>nickel</t>
   </si>
   <si>
-    <t>87449329</t>
+    <t>21628667</t>
   </si>
   <si>
     <t>644556</t>
@@ -159,7 +159,7 @@
     <t>copper sulfate</t>
   </si>
   <si>
-    <t>83734632</t>
+    <t>17479741</t>
   </si>
   <si>
     <t>832402</t>
@@ -168,7 +168,25 @@
     <t>quercetin</t>
   </si>
   <si>
-    <t>84535279</t>
+    <t>18293670</t>
+  </si>
+  <si>
+    <t>47893</t>
+  </si>
+  <si>
+    <t>superoxol</t>
+  </si>
+  <si>
+    <t>17479209</t>
+  </si>
+  <si>
+    <t>565497</t>
+  </si>
+  <si>
+    <t>perhydrol</t>
+  </si>
+  <si>
+    <t>17479215</t>
   </si>
   <si>
     <t>4028538</t>
@@ -177,25 +195,7 @@
     <t>linoleic acid</t>
   </si>
   <si>
-    <t>88624973</t>
-  </si>
-  <si>
-    <t>47893</t>
-  </si>
-  <si>
-    <t>superoxol</t>
-  </si>
-  <si>
-    <t>83734306</t>
-  </si>
-  <si>
-    <t>565497</t>
-  </si>
-  <si>
-    <t>perhydrol</t>
-  </si>
-  <si>
-    <t>83734308</t>
+    <t>23008738</t>
   </si>
   <si>
     <t>2562074</t>
@@ -204,7 +204,7 @@
     <t>oxydol</t>
   </si>
   <si>
-    <t>83734304</t>
+    <t>17479206</t>
   </si>
   <si>
     <t>6127587</t>
@@ -213,7 +213,16 @@
     <t>arachidonic acid</t>
   </si>
   <si>
-    <t>84021830</t>
+    <t>18482306</t>
+  </si>
+  <si>
+    <t>4041298</t>
+  </si>
+  <si>
+    <t>cobalt</t>
+  </si>
+  <si>
+    <t>22574975</t>
   </si>
   <si>
     <t>4034857</t>
@@ -222,7 +231,7 @@
     <t>edetic acid</t>
   </si>
   <si>
-    <t>84735836</t>
+    <t>18343561</t>
   </si>
   <si>
     <t>101767</t>
@@ -231,7 +240,7 @@
     <t>ly 294002</t>
   </si>
   <si>
-    <t>84104329</t>
+    <t>18543084</t>
   </si>
   <si>
     <t>4034062</t>
@@ -240,7 +249,7 @@
     <t>docosahexaenoic acids</t>
   </si>
   <si>
-    <t>87157717</t>
+    <t>21368762</t>
   </si>
   <si>
     <t>2443380</t>
@@ -249,7 +258,7 @@
     <t>u 0126</t>
   </si>
   <si>
-    <t>83399921</t>
+    <t>17027861</t>
   </si>
   <si>
     <t>400566</t>
@@ -258,7 +267,7 @@
     <t>chromium</t>
   </si>
   <si>
-    <t>88375201</t>
+    <t>22261634</t>
   </si>
   <si>
     <t>3783449</t>
@@ -267,7 +276,7 @@
     <t>sb 203580</t>
   </si>
   <si>
-    <t>84195740</t>
+    <t>16969764</t>
   </si>
   <si>
     <t>4034328</t>
@@ -276,16 +285,7 @@
     <t>deferoxamine</t>
   </si>
   <si>
-    <t>83327491</t>
-  </si>
-  <si>
-    <t>4041298</t>
-  </si>
-  <si>
-    <t>cobalt</t>
-  </si>
-  <si>
-    <t>88294692</t>
+    <t>18776141</t>
   </si>
   <si>
     <t>709171</t>
@@ -294,7 +294,7 @@
     <t>nickel chloride</t>
   </si>
   <si>
-    <t>87645030</t>
+    <t>21477408</t>
   </si>
   <si>
     <t>3386626</t>
@@ -303,13 +303,13 @@
     <t>sodium ascorbate</t>
   </si>
   <si>
-    <t>83440378</t>
-  </si>
-  <si>
-    <t>84022225</t>
-  </si>
-  <si>
-    <t>84133447</t>
+    <t>19401478</t>
+  </si>
+  <si>
+    <t>18482834</t>
+  </si>
+  <si>
+    <t>17458807</t>
   </si>
   <si>
     <t>2059427</t>
@@ -318,10 +318,10 @@
     <t>zinc sulfate</t>
   </si>
   <si>
-    <t>84125141</t>
-  </si>
-  <si>
-    <t>84125351</t>
+    <t>18863239</t>
+  </si>
+  <si>
+    <t>18863534</t>
   </si>
   <si>
     <t>361704</t>
@@ -330,7 +330,7 @@
     <t>aluminum hydroxide</t>
   </si>
   <si>
-    <t>85531851</t>
+    <t>19727848</t>
   </si>
   <si>
     <t>770799</t>
@@ -339,7 +339,7 @@
     <t>nickel chloride hexahydrate</t>
   </si>
   <si>
-    <t>87645334</t>
+    <t>21477757</t>
   </si>
   <si>
     <t>95729</t>
@@ -348,7 +348,7 @@
     <t>nickel chloride tetrahydrate</t>
   </si>
   <si>
-    <t>87645257</t>
+    <t>21477636</t>
   </si>
   <si>
     <t>758475</t>
@@ -357,7 +357,7 @@
     <t>nickel chloride monohydroxide</t>
   </si>
   <si>
-    <t>87645184</t>
+    <t>21477540</t>
   </si>
   <si>
     <t>467660</t>
@@ -366,7 +366,7 @@
     <t>nickel chloride trihydroxide</t>
   </si>
   <si>
-    <t>87645088</t>
+    <t>21477463</t>
   </si>
   <si>
     <t>3386497</t>
@@ -375,7 +375,7 @@
     <t>nickel chloride hemihydrate</t>
   </si>
   <si>
-    <t>87645224</t>
+    <t>21477590</t>
   </si>
   <si>
     <t>3386462</t>
@@ -384,7 +384,7 @@
     <t>nickel chloride dihydrate</t>
   </si>
   <si>
-    <t>87644920</t>
+    <t>21477288</t>
   </si>
   <si>
     <t>3385919</t>
@@ -393,7 +393,7 @@
     <t>nickel chloride hydrate</t>
   </si>
   <si>
-    <t>87645138</t>
+    <t>21477492</t>
   </si>
   <si>
     <t>309532</t>
@@ -402,7 +402,7 @@
     <t>nickel chloride monohydrate</t>
   </si>
   <si>
-    <t>87645300</t>
+    <t>21477700</t>
   </si>
   <si>
     <t>2552437</t>
@@ -411,7 +411,7 @@
     <t>nickel chloride heptahydrate</t>
   </si>
   <si>
-    <t>87644969</t>
+    <t>21477376</t>
   </si>
   <si>
     <t>4040980</t>
@@ -420,13 +420,13 @@
     <t>ferrous ascorbate</t>
   </si>
   <si>
-    <t>84022215</t>
-  </si>
-  <si>
-    <t>83439829</t>
-  </si>
-  <si>
-    <t>84133235</t>
+    <t>17458512</t>
+  </si>
+  <si>
+    <t>19400852</t>
+  </si>
+  <si>
+    <t>18482825</t>
   </si>
   <si>
     <t>229747</t>
@@ -435,13 +435,13 @@
     <t>magnesium ascorbate</t>
   </si>
   <si>
-    <t>83440100</t>
-  </si>
-  <si>
-    <t>84022221</t>
-  </si>
-  <si>
-    <t>84133366</t>
+    <t>18482828</t>
+  </si>
+  <si>
+    <t>19401108</t>
+  </si>
+  <si>
+    <t>17458643</t>
   </si>
   <si>
     <t>463661</t>
@@ -450,13 +450,13 @@
     <t>hybrin</t>
   </si>
   <si>
-    <t>84022219</t>
-  </si>
-  <si>
-    <t>83439990</t>
-  </si>
-  <si>
-    <t>84133312</t>
+    <t>17458721</t>
+  </si>
+  <si>
+    <t>18482830</t>
+  </si>
+  <si>
+    <t>19401252</t>
   </si>
   <si>
     <t>461003</t>
@@ -465,13 +465,13 @@
     <t>magnorbin</t>
   </si>
   <si>
-    <t>84022223</t>
-  </si>
-  <si>
-    <t>83440243</t>
-  </si>
-  <si>
-    <t>84133407</t>
+    <t>19401371</t>
+  </si>
+  <si>
+    <t>17458753</t>
+  </si>
+  <si>
+    <t>18482832</t>
   </si>
   <si>
     <t>2443607</t>
@@ -480,7 +480,7 @@
     <t>1,4-diamino-2,3-dicyano-1,4-bis(2-aminophenylthio)butadiene</t>
   </si>
   <si>
-    <t>83400033</t>
+    <t>17027954</t>
   </si>
   <si>
     <t>226300</t>
@@ -489,7 +489,7 @@
     <t>nickel sulfate</t>
   </si>
   <si>
-    <t>85193730</t>
+    <t>19477307</t>
   </si>
   <si>
     <t>459712</t>
@@ -498,7 +498,7 @@
     <t>2-(4-morpholinyl)-8-phenyl-4h-1-benzopyran-4-one</t>
   </si>
   <si>
-    <t>84104252</t>
+    <t>18542993</t>
   </si>
   <si>
     <t>995412</t>
@@ -507,7 +507,7 @@
     <t>ly 29400</t>
   </si>
   <si>
-    <t>84104188</t>
+    <t>18542911</t>
   </si>
   <si>
     <t>2830982</t>
@@ -516,7 +516,7 @@
     <t>4-(4-fluorophenyl)-2-(4-methylsulfinylphenyl)-5-(4-pyridyl)-1h-imidazole</t>
   </si>
   <si>
-    <t>84195606</t>
+    <t>16969715</t>
   </si>
   <si>
     <t>909080</t>
@@ -525,7 +525,7 @@
     <t>ferrous sulfate</t>
   </si>
   <si>
-    <t>204241197</t>
+    <t>138062776</t>
   </si>
   <si>
     <t>is parent of</t>
@@ -537,7 +537,7 @@
     <t>nickel sulfate hexahydrate</t>
   </si>
   <si>
-    <t>85193784</t>
+    <t>19477313</t>
   </si>
   <si>
     <t>377793</t>
@@ -546,7 +546,7 @@
     <t>nickel sulfate hexahydrate-(2)h-labeled cpd</t>
   </si>
   <si>
-    <t>85193778</t>
+    <t>19477312</t>
   </si>
   <si>
     <t>3383920</t>
@@ -555,7 +555,7 @@
     <t>nickel sulfate heptahydrate</t>
   </si>
   <si>
-    <t>85193791</t>
+    <t>19477314</t>
   </si>
   <si>
     <t>3382717</t>
@@ -564,7 +564,7 @@
     <t>nickel sulfate hydrate</t>
   </si>
   <si>
-    <t>85193738</t>
+    <t>19477309</t>
   </si>
   <si>
     <t>3382691</t>
@@ -573,7 +573,7 @@
     <t>nickel sulfate monohydrate</t>
   </si>
   <si>
-    <t>85193744</t>
+    <t>19477311</t>
   </si>
   <si>
     <t>2456777</t>
@@ -582,7 +582,7 @@
     <t>desferal</t>
   </si>
   <si>
-    <t>83327482</t>
+    <t>18776137</t>
   </si>
   <si>
     <t>6127842</t>
@@ -591,7 +591,7 @@
     <t>paraoxon</t>
   </si>
   <si>
-    <t>89651054</t>
+    <t>23711104</t>
   </si>
   <si>
     <t>166261</t>
@@ -600,7 +600,7 @@
     <t>deferoxamine mesylate</t>
   </si>
   <si>
-    <t>83327486</t>
+    <t>18776140</t>
   </si>
   <si>
     <t>4909826</t>
@@ -609,7 +609,7 @@
     <t>arachidonic acid, sodium salt</t>
   </si>
   <si>
-    <t>84021726</t>
+    <t>18482233</t>
   </si>
   <si>
     <t>710833</t>
@@ -618,10 +618,10 @@
     <t>zinc sulfate, heptahydrate</t>
   </si>
   <si>
-    <t>84125266</t>
-  </si>
-  <si>
-    <t>84125057</t>
+    <t>18863173</t>
+  </si>
+  <si>
+    <t>18863398</t>
   </si>
   <si>
     <t>330433</t>
@@ -630,10 +630,10 @@
     <t>zincteral</t>
   </si>
   <si>
-    <t>84125456</t>
-  </si>
-  <si>
-    <t>84125216</t>
+    <t>18863647</t>
+  </si>
+  <si>
+    <t>18863310</t>
   </si>
   <si>
     <t>818150</t>
@@ -642,7 +642,7 @@
     <t>docosahexaenoate</t>
   </si>
   <si>
-    <t>87157506</t>
+    <t>21368621</t>
   </si>
   <si>
     <t>443722</t>
@@ -651,7 +651,7 @@
     <t>arachidonic acid, zinc salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84021430</t>
+    <t>18482059</t>
   </si>
   <si>
     <t>3380937</t>
@@ -660,7 +660,7 @@
     <t>arachidonic acid, cesium salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84021522</t>
+    <t>18482116</t>
   </si>
   <si>
     <t>3380828</t>
@@ -669,7 +669,7 @@
     <t>arachidonic acid, potassium salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84021627</t>
+    <t>18482168</t>
   </si>
   <si>
     <t>3380687</t>
@@ -678,7 +678,7 @@
     <t>arachidonic acid, ammonium salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84021941</t>
+    <t>18482439</t>
   </si>
   <si>
     <t>3380678</t>
@@ -687,7 +687,7 @@
     <t>arachidonic acid, (all-z)-isomer, 3h-labeled</t>
   </si>
   <si>
-    <t>84022138</t>
+    <t>18482596</t>
   </si>
   <si>
     <t>3380539</t>
@@ -696,7 +696,7 @@
     <t>arachidonic acid, cerium salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84021302</t>
+    <t>18481968</t>
   </si>
   <si>
     <t>3379915</t>
@@ -705,7 +705,7 @@
     <t>arachidonic acid, lithium salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84022028</t>
+    <t>18482383</t>
   </si>
   <si>
     <t>3379838</t>
@@ -714,7 +714,7 @@
     <t>arachidonic acid, sodium salt, (all-z)-isomer</t>
   </si>
   <si>
-    <t>84022092</t>
+    <t>18482507</t>
   </si>
   <si>
     <t>315920</t>
@@ -723,7 +723,7 @@
     <t>arachidonic acid, (all-z)-isomer, 1-(14)c-labeled</t>
   </si>
   <si>
-    <t>84021208</t>
+    <t>18481905</t>
   </si>
   <si>
     <t>226352</t>
@@ -732,7 +732,7 @@
     <t>phenylacetic acid</t>
   </si>
   <si>
-    <t>84132680</t>
+    <t>19400221</t>
   </si>
   <si>
     <t>743551</t>
@@ -741,7 +741,7 @@
     <t>linoleate</t>
   </si>
   <si>
-    <t>88624691</t>
+    <t>23008505</t>
   </si>
   <si>
     <t>743398</t>
@@ -750,7 +750,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-(all-z-isomer), cesium salt</t>
   </si>
   <si>
-    <t>87157601</t>
+    <t>21368675</t>
   </si>
   <si>
     <t>502282</t>
@@ -759,7 +759,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-isomer</t>
   </si>
   <si>
-    <t>87157648</t>
+    <t>21368732</t>
   </si>
   <si>
     <t>3387228</t>
@@ -768,7 +768,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-(all-z-isomer), potassium salt</t>
   </si>
   <si>
-    <t>87157293</t>
+    <t>21368213</t>
   </si>
   <si>
     <t>3387194</t>
@@ -777,7 +777,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-(all-z-isomer), cerium salt</t>
   </si>
   <si>
-    <t>87157783</t>
+    <t>21368821</t>
   </si>
   <si>
     <t>3387008</t>
@@ -786,7 +786,7 @@
     <t>docosahexaenoic acid, sodium salt</t>
   </si>
   <si>
-    <t>87157236</t>
+    <t>21368256</t>
   </si>
   <si>
     <t>3386990</t>
@@ -795,7 +795,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-(all-z-isomer)</t>
   </si>
   <si>
-    <t>87157157</t>
+    <t>21368178</t>
   </si>
   <si>
     <t>3386925</t>
@@ -804,7 +804,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-isomer, sodium salt</t>
   </si>
   <si>
-    <t>87157361</t>
+    <t>21368342</t>
   </si>
   <si>
     <t>3386914</t>
@@ -813,7 +813,7 @@
     <t>docosahexaenoic acid dimer (all-z isomer)</t>
   </si>
   <si>
-    <t>87157404</t>
+    <t>21368308</t>
   </si>
   <si>
     <t>3386868</t>
@@ -822,7 +822,7 @@
     <t>docosahexaenoic acid, 4,7,10,13,16,19-(z,z,z,z,z,e-isomer)</t>
   </si>
   <si>
-    <t>87157452</t>
+    <t>21368435</t>
   </si>
   <si>
     <t>3386661</t>
@@ -831,7 +831,7 @@
     <t>docosahexaenoic acid, 3,6,9,12,15,18-isomer</t>
   </si>
   <si>
-    <t>87157079</t>
+    <t>21368119</t>
   </si>
   <si>
     <t>276697</t>
@@ -840,7 +840,7 @@
     <t>docosahexaenoic acid (all-z isomer)</t>
   </si>
   <si>
-    <t>87157554</t>
+    <t>21368560</t>
   </si>
   <si>
     <t>108937</t>
@@ -849,7 +849,7 @@
     <t>mimosine</t>
   </si>
   <si>
-    <t>86688584</t>
+    <t>20756993</t>
   </si>
   <si>
     <t>4723561</t>
@@ -858,7 +858,7 @@
     <t>deferiprone</t>
   </si>
   <si>
-    <t>85899413</t>
+    <t>17078086</t>
   </si>
   <si>
     <t>302256</t>
@@ -867,7 +867,7 @@
     <t>galangin</t>
   </si>
   <si>
-    <t>88262636</t>
+    <t>17445302</t>
   </si>
   <si>
     <t>750167</t>
@@ -876,7 +876,7 @@
     <t>e-600</t>
   </si>
   <si>
-    <t>89651050</t>
+    <t>23711102</t>
   </si>
   <si>
     <t>2427268</t>
@@ -885,7 +885,7 @@
     <t>phosphacol</t>
   </si>
   <si>
-    <t>89651048</t>
+    <t>23711100</t>
   </si>
   <si>
     <t>2426744</t>
@@ -894,7 +894,7 @@
     <t>fosfakol</t>
   </si>
   <si>
-    <t>89651052</t>
+    <t>23711103</t>
   </si>
   <si>
     <t>570126</t>
@@ -903,7 +903,7 @@
     <t>picolinic acid</t>
   </si>
   <si>
-    <t>88040609</t>
+    <t>22562338</t>
   </si>
   <si>
     <t>573347</t>
@@ -912,7 +912,7 @@
     <t>phenylacetate</t>
   </si>
   <si>
-    <t>84132688</t>
+    <t>19400235</t>
   </si>
   <si>
     <t>429262</t>
@@ -921,7 +921,7 @@
     <t>edetic acid, disodium salt</t>
   </si>
   <si>
-    <t>84735787</t>
+    <t>18343554</t>
   </si>
   <si>
     <t>262356</t>
@@ -930,7 +930,7 @@
     <t>chromium picolinate</t>
   </si>
   <si>
-    <t>88040605</t>
+    <t>22562335</t>
   </si>
   <si>
     <t>4041118</t>
@@ -939,7 +939,7 @@
     <t>filipin</t>
   </si>
   <si>
-    <t>84168117</t>
+    <t>18107918</t>
   </si>
   <si>
     <t>4041998</t>
@@ -948,7 +948,7 @@
     <t>edetate calcium disodium</t>
   </si>
   <si>
-    <t>84735873</t>
+    <t>18343567</t>
   </si>
   <si>
     <t>644665</t>
@@ -957,7 +957,7 @@
     <t>linolelaidic acid</t>
   </si>
   <si>
-    <t>88624748</t>
+    <t>23008571</t>
   </si>
   <si>
     <t>5796416</t>
@@ -966,7 +966,7 @@
     <t>edetates</t>
   </si>
   <si>
-    <t>84735924</t>
+    <t>18343581</t>
   </si>
   <si>
     <t>566481</t>
@@ -975,7 +975,7 @@
     <t>linoleic acid, (z,z)-isomer</t>
   </si>
   <si>
-    <t>88624850</t>
+    <t>23008640</t>
   </si>
   <si>
     <t>42039</t>
@@ -984,7 +984,7 @@
     <t>linoelaidic acid, (e,z)-isomer</t>
   </si>
   <si>
-    <t>88624895</t>
+    <t>23008678</t>
   </si>
   <si>
     <t>404353</t>
@@ -993,7 +993,7 @@
     <t>linoleic acid, potassium salt, (z,z)-isomer</t>
   </si>
   <si>
-    <t>88624497</t>
+    <t>23008310</t>
   </si>
   <si>
     <t>3380848</t>
@@ -1002,7 +1002,7 @@
     <t>linoleic acid, sodium salt, (e,e)-isomer</t>
   </si>
   <si>
-    <t>88624622</t>
+    <t>23008543</t>
   </si>
   <si>
     <t>3380831</t>
@@ -1011,7 +1011,7 @@
     <t>linoleic acid, calcium salt, (z,z)-isomer</t>
   </si>
   <si>
-    <t>88624933</t>
+    <t>23008713</t>
   </si>
   <si>
     <t>3380094</t>
@@ -1020,7 +1020,7 @@
     <t>linoleic acid, ammonium salt, (z,z)-isomer</t>
   </si>
   <si>
-    <t>88624572</t>
+    <t>23008451</t>
   </si>
   <si>
     <t>3379980</t>
@@ -1029,7 +1029,7 @@
     <t>linoleic acid, (z,e)-isomer</t>
   </si>
   <si>
-    <t>88624797</t>
+    <t>23008607</t>
   </si>
   <si>
     <t>3379977</t>
@@ -1038,7 +1038,7 @@
     <t>linoleic acid, sodium salt, (z,z)-isomer</t>
   </si>
   <si>
-    <t>88624419</t>
+    <t>23008345</t>
   </si>
   <si>
     <t>3379845</t>
@@ -1047,7 +1047,7 @@
     <t>linoleic acid, (z,z)-isomer, 14c-labeled</t>
   </si>
   <si>
-    <t>88624342</t>
+    <t>23008392</t>
   </si>
   <si>
     <t>783926</t>
@@ -1056,7 +1056,7 @@
     <t>versenate</t>
   </si>
   <si>
-    <t>84735827</t>
+    <t>18343560</t>
   </si>
   <si>
     <t>4975138</t>
@@ -1065,7 +1065,7 @@
     <t>edetic acid, chromium salt</t>
   </si>
   <si>
-    <t>84735929</t>
+    <t>18343583</t>
   </si>
   <si>
     <t>4027100</t>
@@ -1074,7 +1074,7 @@
     <t>edetic acid, potassium salt</t>
   </si>
   <si>
-    <t>84735845</t>
+    <t>18343563</t>
   </si>
   <si>
     <t>544340</t>
@@ -1083,7 +1083,7 @@
     <t>calcium disodium versenate</t>
   </si>
   <si>
-    <t>84735941</t>
+    <t>18343585</t>
   </si>
   <si>
     <t>4041276</t>
@@ -1092,7 +1092,7 @@
     <t>bipyridyl</t>
   </si>
   <si>
-    <t>89529577</t>
+    <t>23720126</t>
   </si>
   <si>
     <t>700918</t>
@@ -1101,7 +1101,7 @@
     <t>copper edta</t>
   </si>
   <si>
-    <t>84735866</t>
+    <t>18343566</t>
   </si>
   <si>
     <t>64635</t>
@@ -1110,7 +1110,7 @@
     <t>versene</t>
   </si>
   <si>
-    <t>84735817</t>
+    <t>18343558</t>
   </si>
   <si>
     <t>460681</t>
@@ -1119,7 +1119,7 @@
     <t>tetracemate</t>
   </si>
   <si>
-    <t>84735811</t>
+    <t>18343557</t>
   </si>
   <si>
     <t>651314</t>
@@ -1128,7 +1128,7 @@
     <t>magnesium disodium edta</t>
   </si>
   <si>
-    <t>84735886</t>
+    <t>18343569</t>
   </si>
   <si>
     <t>4034285</t>
@@ -1137,7 +1137,7 @@
     <t>gallium edta</t>
   </si>
   <si>
-    <t>84735880</t>
+    <t>18343568</t>
   </si>
   <si>
     <t>2435801</t>
@@ -1146,7 +1146,7 @@
     <t>disodium calcitetracemate</t>
   </si>
   <si>
-    <t>84735829</t>
+    <t>18343562</t>
   </si>
   <si>
     <t>775565</t>
@@ -1155,7 +1155,7 @@
     <t>edetic acid, calcium, sodium salt</t>
   </si>
   <si>
-    <t>84735796</t>
+    <t>18343555</t>
   </si>
   <si>
     <t>759692</t>
@@ -1164,7 +1164,7 @@
     <t>edetic acid, calcium salt</t>
   </si>
   <si>
-    <t>84735917</t>
+    <t>18343579</t>
   </si>
   <si>
     <t>6121181</t>
@@ -1173,7 +1173,7 @@
     <t>calcium tetacine</t>
   </si>
   <si>
-    <t>84735920</t>
+    <t>18343580</t>
   </si>
   <si>
     <t>5310883</t>
@@ -1182,7 +1182,7 @@
     <t>coprin</t>
   </si>
   <si>
-    <t>84735908</t>
+    <t>18343575</t>
   </si>
   <si>
     <t>4869799</t>
@@ -1191,7 +1191,7 @@
     <t>chelaton 3</t>
   </si>
   <si>
-    <t>84735852</t>
+    <t>18343564</t>
   </si>
   <si>
     <t>4040902</t>
@@ -1200,7 +1200,7 @@
     <t>dicobalt edta</t>
   </si>
   <si>
-    <t>84735892</t>
+    <t>18343571</t>
   </si>
   <si>
     <t>3814936</t>
@@ -1209,7 +1209,7 @@
     <t>stannous edta</t>
   </si>
   <si>
-    <t>84735904</t>
+    <t>18343576</t>
   </si>
   <si>
     <t>3387071</t>
@@ -1218,7 +1218,7 @@
     <t>edetic acid, disodium salt, dihydrate</t>
   </si>
   <si>
-    <t>84735859</t>
+    <t>18343565</t>
   </si>
   <si>
     <t>3387020</t>
@@ -1227,7 +1227,7 @@
     <t>edetic acid, monopotassium salt</t>
   </si>
   <si>
-    <t>84735946</t>
+    <t>18343588</t>
   </si>
   <si>
     <t>3387017</t>
@@ -1236,7 +1236,7 @@
     <t>edetic acid, sodium salt</t>
   </si>
   <si>
-    <t>84735791</t>
+    <t>18343553</t>
   </si>
   <si>
     <t>3386743</t>
@@ -1245,7 +1245,7 @@
     <t>edetic acid, monosodium salt</t>
   </si>
   <si>
-    <t>84735822</t>
+    <t>18343559</t>
   </si>
   <si>
     <t>3386708</t>
@@ -1254,7 +1254,7 @@
     <t>edetic acid, disodium, monopotassium salt</t>
   </si>
   <si>
-    <t>84735913</t>
+    <t>18343578</t>
   </si>
   <si>
     <t>3386624</t>
@@ -1263,7 +1263,7 @@
     <t>edetic acid, magnesium salt</t>
   </si>
   <si>
-    <t>84735802</t>
+    <t>18343556</t>
   </si>
   <si>
     <t>3386612</t>
@@ -1272,7 +1272,7 @@
     <t>edetic acid, dipotassium salt</t>
   </si>
   <si>
-    <t>84735898</t>
+    <t>18343573</t>
   </si>
   <si>
     <t>290303</t>
@@ -1281,7 +1281,7 @@
     <t>distannous edta</t>
   </si>
   <si>
-    <t>84735781</t>
+    <t>18343552</t>
   </si>
   <si>
     <t>5042477</t>
@@ -1290,7 +1290,7 @@
     <t>picolinate</t>
   </si>
   <si>
-    <t>88040613</t>
+    <t>22562345</t>
   </si>
   <si>
     <t>4814864</t>
@@ -1299,7 +1299,7 @@
     <t>aluminum potassium sulfate</t>
   </si>
   <si>
-    <t>85531850</t>
+    <t>19727845</t>
   </si>
   <si>
     <t>101456</t>
@@ -1308,7 +1308,7 @@
     <t>cp20 (deferiprone)</t>
   </si>
   <si>
-    <t>85899372</t>
+    <t>17078193</t>
   </si>
   <si>
     <t>5244868</t>
@@ -1317,7 +1317,7 @@
     <t>zinc picolinate</t>
   </si>
   <si>
-    <t>88040615</t>
+    <t>22562347</t>
   </si>
   <si>
     <t>118389</t>
@@ -1326,7 +1326,7 @@
     <t>sodium phenylacetate</t>
   </si>
   <si>
-    <t>84132678</t>
+    <t>19400225</t>
   </si>
   <si>
     <t>5902233</t>
@@ -1335,7 +1335,7 @@
     <t>2,2'-dipyridyl</t>
   </si>
   <si>
-    <t>89529575</t>
+    <t>23720125</t>
   </si>
   <si>
     <t>2997435</t>
@@ -1344,7 +1344,7 @@
     <t>ferriprox</t>
   </si>
   <si>
-    <t>85899322</t>
+    <t>17077620</t>
   </si>
   <si>
     <t>548478</t>
@@ -1353,7 +1353,7 @@
     <t>calcium dipicolinate trihydrate</t>
   </si>
   <si>
-    <t>88040611</t>
+    <t>22562343</t>
   </si>
   <si>
     <t>2567778</t>
@@ -1362,7 +1362,7 @@
     <t>picolinic acid, sodium salt</t>
   </si>
   <si>
-    <t>88040619</t>
+    <t>22562353</t>
   </si>
   <si>
     <t>2532874</t>
@@ -1371,7 +1371,7 @@
     <t>iron(iii) picolinate</t>
   </si>
   <si>
-    <t>88040617</t>
+    <t>22562349</t>
   </si>
   <si>
     <t>2531316</t>
@@ -1380,7 +1380,7 @@
     <t>picolinic acid, hydrochloride</t>
   </si>
   <si>
-    <t>88040607</t>
+    <t>22562341</t>
   </si>
   <si>
     <t>34560</t>
@@ -1389,7 +1389,7 @@
     <t>phenylacetic acid, lithium salt</t>
   </si>
   <si>
-    <t>84132686</t>
+    <t>19400229</t>
   </si>
   <si>
     <t>3385206</t>
@@ -1398,7 +1398,7 @@
     <t>phenylacetic acid, calcium salt</t>
   </si>
   <si>
-    <t>84132683</t>
+    <t>19400232</t>
   </si>
   <si>
     <t>3385173</t>
@@ -1407,7 +1407,7 @@
     <t>phenylacetic acid, potassium salt</t>
   </si>
   <si>
-    <t>84132670</t>
+    <t>19400214</t>
   </si>
   <si>
     <t>3385127</t>
@@ -1416,7 +1416,7 @@
     <t>phenylacetic acid, rubidium salt</t>
   </si>
   <si>
-    <t>84132697</t>
+    <t>19400242</t>
   </si>
   <si>
     <t>3385097</t>
@@ -1425,7 +1425,7 @@
     <t>phenylacetic acid, sodium salt , carboxy-(11)c-labeled cpd</t>
   </si>
   <si>
-    <t>84132674</t>
+    <t>19400218</t>
   </si>
   <si>
     <t>3384790</t>
@@ -1434,7 +1434,7 @@
     <t>phenylacetic acid, cesium salt</t>
   </si>
   <si>
-    <t>84132667</t>
+    <t>19400211</t>
   </si>
   <si>
     <t>3382136</t>
@@ -1443,7 +1443,7 @@
     <t>phenylacetic acid, ammonium salt</t>
   </si>
   <si>
-    <t>84132692</t>
+    <t>19400238</t>
   </si>
   <si>
     <t>147300</t>
@@ -1452,7 +1452,7 @@
     <t>phenylacetic acid, mercury salt</t>
   </si>
   <si>
-    <t>84132695</t>
+    <t>19400244</t>
   </si>
   <si>
     <t>5097253</t>
@@ -1461,7 +1461,7 @@
     <t>l1 oral chelate</t>
   </si>
   <si>
-    <t>85899235</t>
+    <t>17077503</t>
   </si>
   <si>
     <t>452095</t>
@@ -1470,7 +1470,7 @@
     <t>n,n'-bis(2-hydroxybenzyl)ethylenediamine-n,n'-diacetic acid</t>
   </si>
   <si>
-    <t>89779923</t>
+    <t>23885366</t>
   </si>
   <si>
     <t>3746168</t>
@@ -1479,7 +1479,7 @@
     <t>n-((2-(hydroxyaminocarbonyl)methyl)-4-methylpentanoyl)-3-(2'-naphthyl)alanylalanine, 2-aminoethylamide</t>
   </si>
   <si>
-    <t>89637373</t>
+    <t>23796289</t>
   </si>
   <si>
     <t>1079800</t>
@@ -1488,7 +1488,7 @@
     <t>aluminum hydrogen sulfate</t>
   </si>
   <si>
-    <t>85531852</t>
+    <t>19727850</t>
   </si>
   <si>
     <t>2508290</t>
@@ -1497,7 +1497,7 @@
     <t>nsc-3364</t>
   </si>
   <si>
-    <t>84164810</t>
+    <t>18107507</t>
   </si>
   <si>
     <t>136185</t>
@@ -1506,7 +1506,7 @@
     <t>u-5956</t>
   </si>
   <si>
-    <t>84167947</t>
+    <t>18107819</t>
   </si>
   <si>
     <t>426918</t>
@@ -1515,7 +1515,7 @@
     <t>filipin iv</t>
   </si>
   <si>
-    <t>84167760</t>
+    <t>18107652</t>
   </si>
   <si>
     <t>4048824</t>
@@ -1524,7 +1524,7 @@
     <t>filipin i</t>
   </si>
   <si>
-    <t>84167631</t>
+    <t>18107562</t>
   </si>
   <si>
     <t>326051</t>
@@ -1533,7 +1533,7 @@
     <t>filipin ii</t>
   </si>
   <si>
-    <t>84164694</t>
+    <t>18107372</t>
   </si>
   <si>
     <t>2476543</t>
@@ -1545,13 +1545,13 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>83872580</t>
-  </si>
-  <si>
-    <t>83512526</t>
-  </si>
-  <si>
-    <t>83329105</t>
+    <t>19215364</t>
+  </si>
+  <si>
+    <t>19351556</t>
+  </si>
+  <si>
+    <t>17544502</t>
   </si>
   <si>
     <t>2791275</t>
@@ -1560,16 +1560,16 @@
     <t>mapk1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83400098</t>
-  </si>
-  <si>
-    <t>85736576</t>
-  </si>
-  <si>
-    <t>85974314</t>
-  </si>
-  <si>
-    <t>89441369</t>
+    <t>20356229</t>
+  </si>
+  <si>
+    <t>17028054</t>
+  </si>
+  <si>
+    <t>16969815</t>
+  </si>
+  <si>
+    <t>23335323</t>
   </si>
   <si>
     <t>is tributary of</t>
@@ -1581,7 +1581,7 @@
     <t>jun (homo sapiens)</t>
   </si>
   <si>
-    <t>88604350</t>
+    <t>22840165</t>
   </si>
   <si>
     <t>2790758</t>
@@ -1590,16 +1590,25 @@
     <t>mapk3 (homo sapiens)</t>
   </si>
   <si>
-    <t>84195865</t>
-  </si>
-  <si>
-    <t>84036950</t>
-  </si>
-  <si>
-    <t>84771808</t>
-  </si>
-  <si>
-    <t>88456678</t>
+    <t>20234146</t>
+  </si>
+  <si>
+    <t>18780776</t>
+  </si>
+  <si>
+    <t>22469781</t>
+  </si>
+  <si>
+    <t>19452643</t>
+  </si>
+  <si>
+    <t>2791109</t>
+  </si>
+  <si>
+    <t>cdkn1a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18650997</t>
   </si>
   <si>
     <t>2791240</t>
@@ -1608,16 +1617,7 @@
     <t>stat3 (homo sapiens)</t>
   </si>
   <si>
-    <t>83734576</t>
-  </si>
-  <si>
-    <t>2791109</t>
-  </si>
-  <si>
-    <t>cdkn1a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84549772</t>
+    <t>17479597</t>
   </si>
   <si>
     <t>2792317</t>
@@ -1626,7 +1626,7 @@
     <t>il6 (homo sapiens)</t>
   </si>
   <si>
-    <t>85951017</t>
+    <t>20695158</t>
   </si>
   <si>
     <t>2786023</t>
@@ -1635,7 +1635,7 @@
     <t>il1b (homo sapiens)</t>
   </si>
   <si>
-    <t>83439767</t>
+    <t>17458473</t>
   </si>
   <si>
     <t>2792087</t>
@@ -1644,10 +1644,10 @@
     <t>cxcl8 (homo sapiens)</t>
   </si>
   <si>
-    <t>85194385</t>
-  </si>
-  <si>
-    <t>90120681</t>
+    <t>19477659</t>
+  </si>
+  <si>
+    <t>18131581</t>
   </si>
   <si>
     <t>1569150</t>
@@ -1656,7 +1656,7 @@
     <t>cat (homo sapiens)</t>
   </si>
   <si>
-    <t>88751604</t>
+    <t>22767847</t>
   </si>
   <si>
     <t>2476800</t>
@@ -1665,13 +1665,13 @@
     <t>akt1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83845157</t>
-  </si>
-  <si>
-    <t>86121791</t>
-  </si>
-  <si>
-    <t>85698453</t>
+    <t>19925769</t>
+  </si>
+  <si>
+    <t>19683045</t>
+  </si>
+  <si>
+    <t>18619269</t>
   </si>
   <si>
     <t>1658339</t>
@@ -1680,7 +1680,7 @@
     <t>nfkb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>85531782</t>
+    <t>19727588</t>
   </si>
   <si>
     <t>2963902</t>
@@ -1689,7 +1689,7 @@
     <t>alb (homo sapiens)</t>
   </si>
   <si>
-    <t>84020915</t>
+    <t>18481796</t>
   </si>
   <si>
     <t>1806163</t>
@@ -1698,7 +1698,7 @@
     <t>egr1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83443194</t>
+    <t>17462534</t>
   </si>
   <si>
     <t>678599</t>
@@ -1707,7 +1707,7 @@
     <t>rela (homo sapiens)</t>
   </si>
   <si>
-    <t>85531732</t>
+    <t>19727484</t>
   </si>
   <si>
     <t>2789017</t>
@@ -1716,7 +1716,7 @@
     <t>cd44 (homo sapiens)</t>
   </si>
   <si>
-    <t>86657950</t>
+    <t>20434466</t>
   </si>
   <si>
     <t>2792389</t>
@@ -1725,7 +1725,7 @@
     <t>stat1 (homo sapiens)</t>
   </si>
   <si>
-    <t>86699154</t>
+    <t>21541502</t>
   </si>
   <si>
     <t>1657979</t>
@@ -1734,7 +1734,7 @@
     <t>nos2 (homo sapiens)</t>
   </si>
   <si>
-    <t>84695176</t>
+    <t>19280296</t>
   </si>
   <si>
     <t>2791012</t>
@@ -1743,7 +1743,7 @@
     <t>tlr4 (homo sapiens)</t>
   </si>
   <si>
-    <t>84499516</t>
+    <t>18893289</t>
   </si>
   <si>
     <t>3015980</t>
@@ -1752,7 +1752,7 @@
     <t>gsk3b (homo sapiens)</t>
   </si>
   <si>
-    <t>88178950</t>
+    <t>22487447</t>
   </si>
   <si>
     <t>1656052</t>
@@ -1761,10 +1761,10 @@
     <t>pik3r1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83512435</t>
-  </si>
-  <si>
-    <t>88093715</t>
+    <t>22412885</t>
+  </si>
+  <si>
+    <t>17394853</t>
   </si>
   <si>
     <t>2791215</t>
@@ -1773,7 +1773,7 @@
     <t>tfrc (homo sapiens)</t>
   </si>
   <si>
-    <t>84244150</t>
+    <t>18945381</t>
   </si>
   <si>
     <t>2731456</t>
@@ -1782,13 +1782,22 @@
     <t>hras (homo sapiens)</t>
   </si>
   <si>
-    <t>86657295</t>
-  </si>
-  <si>
-    <t>88093647</t>
-  </si>
-  <si>
-    <t>84716838</t>
+    <t>20730675</t>
+  </si>
+  <si>
+    <t>22412815</t>
+  </si>
+  <si>
+    <t>19796389</t>
+  </si>
+  <si>
+    <t>2655850</t>
+  </si>
+  <si>
+    <t>hif1a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17445436</t>
   </si>
   <si>
     <t>1807149</t>
@@ -1797,16 +1806,7 @@
     <t>ikbkb (homo sapiens)</t>
   </si>
   <si>
-    <t>84264317</t>
-  </si>
-  <si>
-    <t>2655850</t>
-  </si>
-  <si>
-    <t>hif1a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85491132</t>
+    <t>18257342</t>
   </si>
   <si>
     <t>1697444</t>
@@ -1815,7 +1815,7 @@
     <t>acta2 (homo sapiens)</t>
   </si>
   <si>
-    <t>84446348</t>
+    <t>18586834</t>
   </si>
   <si>
     <t>2792544</t>
@@ -1824,16 +1824,16 @@
     <t>nfkbia (homo sapiens)</t>
   </si>
   <si>
-    <t>88304497</t>
-  </si>
-  <si>
-    <t>84716886</t>
-  </si>
-  <si>
-    <t>86701997</t>
-  </si>
-  <si>
-    <t>87100021</t>
+    <t>17394934</t>
+  </si>
+  <si>
+    <t>20484938</t>
+  </si>
+  <si>
+    <t>22582527</t>
+  </si>
+  <si>
+    <t>21623522</t>
   </si>
   <si>
     <t>2792483</t>
@@ -1842,7 +1842,7 @@
     <t>chuk (homo sapiens)</t>
   </si>
   <si>
-    <t>84264196</t>
+    <t>18256996</t>
   </si>
   <si>
     <t>2786284</t>
@@ -1851,7 +1851,7 @@
     <t>il4 (homo sapiens)</t>
   </si>
   <si>
-    <t>83749074</t>
+    <t>19099445</t>
   </si>
   <si>
     <t>2787212</t>
@@ -1860,7 +1860,7 @@
     <t>g6pd (homo sapiens)</t>
   </si>
   <si>
-    <t>90482497</t>
+    <t>17305959</t>
   </si>
   <si>
     <t>2788017</t>
@@ -1869,7 +1869,7 @@
     <t>cav1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83571557</t>
+    <t>17315277</t>
   </si>
   <si>
     <t>2785934</t>
@@ -1878,7 +1878,7 @@
     <t>gdnf (homo sapiens)</t>
   </si>
   <si>
-    <t>90102430</t>
+    <t>18020121</t>
   </si>
   <si>
     <t>disrupts</t>
@@ -1890,7 +1890,7 @@
     <t>spp1 (homo sapiens)</t>
   </si>
   <si>
-    <t>84566204</t>
+    <t>19687561</t>
   </si>
   <si>
     <t>2786963</t>
@@ -1899,7 +1899,7 @@
     <t>tf (homo sapiens)</t>
   </si>
   <si>
-    <t>89294486</t>
+    <t>17824231</t>
   </si>
   <si>
     <t>677476</t>
@@ -1908,7 +1908,16 @@
     <t>dnajb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>85884403</t>
+    <t>19728807</t>
+  </si>
+  <si>
+    <t>3015921</t>
+  </si>
+  <si>
+    <t>gsr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22773272</t>
   </si>
   <si>
     <t>1779830</t>
@@ -1917,16 +1926,7 @@
     <t>cebpb (homo sapiens)</t>
   </si>
   <si>
-    <t>83630188</t>
-  </si>
-  <si>
-    <t>3015921</t>
-  </si>
-  <si>
-    <t>gsr (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88531618</t>
+    <t>18437821</t>
   </si>
   <si>
     <t>2788835</t>
@@ -1935,7 +1935,7 @@
     <t>cxcl10 (homo sapiens)</t>
   </si>
   <si>
-    <t>86931809</t>
+    <t>21002602</t>
   </si>
   <si>
     <t>102558</t>
@@ -1944,7 +1944,7 @@
     <t>myb (homo sapiens)</t>
   </si>
   <si>
-    <t>83823539</t>
+    <t>17733429</t>
   </si>
   <si>
     <t>3009869</t>
@@ -1953,7 +1953,16 @@
     <t>pmepa1 (homo sapiens)</t>
   </si>
   <si>
-    <t>84621851</t>
+    <t>18713218</t>
+  </si>
+  <si>
+    <t>2476266</t>
+  </si>
+  <si>
+    <t>cxcl2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>24289296</t>
   </si>
   <si>
     <t>2278778</t>
@@ -1962,16 +1971,7 @@
     <t>lep (homo sapiens)</t>
   </si>
   <si>
-    <t>88135783</t>
-  </si>
-  <si>
-    <t>2476266</t>
-  </si>
-  <si>
-    <t>cxcl2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>90414673</t>
+    <t>22452876</t>
   </si>
   <si>
     <t>2789105</t>
@@ -1980,7 +1980,7 @@
     <t>csf2 (homo sapiens)</t>
   </si>
   <si>
-    <t>85228916</t>
+    <t>19710160</t>
   </si>
   <si>
     <t>2829040</t>
@@ -1989,7 +1989,7 @@
     <t>trpv1 (homo sapiens)</t>
   </si>
   <si>
-    <t>84971403</t>
+    <t>19020512</t>
   </si>
   <si>
     <t>2650271</t>
@@ -1998,16 +1998,16 @@
     <t>map3k7 (homo sapiens)</t>
   </si>
   <si>
-    <t>88093578</t>
-  </si>
-  <si>
-    <t>85348733</t>
-  </si>
-  <si>
-    <t>88417181</t>
-  </si>
-  <si>
-    <t>83845012</t>
+    <t>20226777</t>
+  </si>
+  <si>
+    <t>22293492</t>
+  </si>
+  <si>
+    <t>18619204</t>
+  </si>
+  <si>
+    <t>22412774</t>
   </si>
   <si>
     <t>1794135</t>
@@ -2016,7 +2016,16 @@
     <t>il1rn (homo sapiens)</t>
   </si>
   <si>
-    <t>87074060</t>
+    <t>21599829</t>
+  </si>
+  <si>
+    <t>1053692</t>
+  </si>
+  <si>
+    <t>pon1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19399701</t>
   </si>
   <si>
     <t>2960120</t>
@@ -2025,7 +2034,16 @@
     <t>abcf1 (homo sapiens)</t>
   </si>
   <si>
-    <t>89685100</t>
+    <t>23746111</t>
+  </si>
+  <si>
+    <t>2792041</t>
+  </si>
+  <si>
+    <t>ccl20 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19334514</t>
   </si>
   <si>
     <t>2230455</t>
@@ -2034,7 +2052,7 @@
     <t>f2 (homo sapiens)</t>
   </si>
   <si>
-    <t>84895708</t>
+    <t>19910124</t>
   </si>
   <si>
     <t>1659543</t>
@@ -2043,28 +2061,10 @@
     <t>mt2a (homo sapiens)</t>
   </si>
   <si>
-    <t>84124697</t>
-  </si>
-  <si>
-    <t>84124934</t>
-  </si>
-  <si>
-    <t>2792041</t>
-  </si>
-  <si>
-    <t>ccl20 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85550236</t>
-  </si>
-  <si>
-    <t>1053692</t>
-  </si>
-  <si>
-    <t>pon1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84132528</t>
+    <t>18863054</t>
+  </si>
+  <si>
+    <t>18863106</t>
   </si>
   <si>
     <t>1660122</t>
@@ -2073,7 +2073,16 @@
     <t>klk1 (homo sapiens)</t>
   </si>
   <si>
-    <t>88686954</t>
+    <t>22902221</t>
+  </si>
+  <si>
+    <t>1697177</t>
+  </si>
+  <si>
+    <t>epas1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18293865</t>
   </si>
   <si>
     <t>2791205</t>
@@ -2082,16 +2091,7 @@
     <t>tlr2 (homo sapiens)</t>
   </si>
   <si>
-    <t>87614633</t>
-  </si>
-  <si>
-    <t>1697177</t>
-  </si>
-  <si>
-    <t>epas1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84535381</t>
+    <t>21778800</t>
   </si>
   <si>
     <t>1569957</t>
@@ -2100,7 +2100,16 @@
     <t>crp (homo sapiens)</t>
   </si>
   <si>
-    <t>84311882</t>
+    <t>18998575</t>
+  </si>
+  <si>
+    <t>1659227</t>
+  </si>
+  <si>
+    <t>mmp13 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23440014</t>
   </si>
   <si>
     <t>1779392</t>
@@ -2109,16 +2118,7 @@
     <t>ccr7 (homo sapiens)</t>
   </si>
   <si>
-    <t>84996481</t>
-  </si>
-  <si>
-    <t>1659227</t>
-  </si>
-  <si>
-    <t>mmp13 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>89208550</t>
+    <t>18902612</t>
   </si>
   <si>
     <t>2791280</t>
@@ -2127,13 +2127,13 @@
     <t>map2k6 (homo sapiens)</t>
   </si>
   <si>
-    <t>89442522</t>
-  </si>
-  <si>
-    <t>84076280</t>
-  </si>
-  <si>
-    <t>88970647</t>
+    <t>23112909</t>
+  </si>
+  <si>
+    <t>18022666</t>
+  </si>
+  <si>
+    <t>23633151</t>
   </si>
   <si>
     <t>2792072</t>
@@ -2142,7 +2142,7 @@
     <t>cxcr2 (homo sapiens)</t>
   </si>
   <si>
-    <t>85315664</t>
+    <t>19160126</t>
   </si>
   <si>
     <t>2827154</t>
@@ -2151,7 +2151,7 @@
     <t>selplg (homo sapiens)</t>
   </si>
   <si>
-    <t>86895732</t>
+    <t>20658930</t>
   </si>
   <si>
     <t>2059740</t>
@@ -2160,7 +2160,7 @@
     <t>f10 (homo sapiens)</t>
   </si>
   <si>
-    <t>85471408</t>
+    <t>19487139</t>
   </si>
   <si>
     <t>2790867</t>
@@ -2169,7 +2169,19 @@
     <t>cxcl11 (homo sapiens)</t>
   </si>
   <si>
-    <t>85169639</t>
+    <t>19070739</t>
+  </si>
+  <si>
+    <t>2476565</t>
+  </si>
+  <si>
+    <t>lta (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20306776</t>
+  </si>
+  <si>
+    <t>18231549</t>
   </si>
   <si>
     <t>2963504</t>
@@ -2178,19 +2190,7 @@
     <t>atp2a1 (homo sapiens)</t>
   </si>
   <si>
-    <t>84734948</t>
-  </si>
-  <si>
-    <t>2476565</t>
-  </si>
-  <si>
-    <t>lta (homo sapiens)</t>
-  </si>
-  <si>
-    <t>90573124</t>
-  </si>
-  <si>
-    <t>86511163</t>
+    <t>18342534</t>
   </si>
   <si>
     <t>2791818</t>
@@ -2199,7 +2199,16 @@
     <t>cxcl13 (homo sapiens)</t>
   </si>
   <si>
-    <t>85041947</t>
+    <t>18965417</t>
+  </si>
+  <si>
+    <t>2791402</t>
+  </si>
+  <si>
+    <t>cxcl14 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22968856</t>
   </si>
   <si>
     <t>1659242</t>
@@ -2208,19 +2217,10 @@
     <t>mt1a (homo sapiens)</t>
   </si>
   <si>
-    <t>87413967</t>
-  </si>
-  <si>
-    <t>87414001</t>
-  </si>
-  <si>
-    <t>2791402</t>
-  </si>
-  <si>
-    <t>cxcl14 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88574551</t>
+    <t>18389394</t>
+  </si>
+  <si>
+    <t>18389247</t>
   </si>
   <si>
     <t>2791264</t>
@@ -2229,7 +2229,16 @@
     <t>map3k14 (homo sapiens)</t>
   </si>
   <si>
-    <t>88236466</t>
+    <t>22287230</t>
+  </si>
+  <si>
+    <t>2960258</t>
+  </si>
+  <si>
+    <t>aco1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>21477869</t>
   </si>
   <si>
     <t>1701112</t>
@@ -2238,16 +2247,7 @@
     <t>bcl2a1 (homo sapiens)</t>
   </si>
   <si>
-    <t>85459510</t>
-  </si>
-  <si>
-    <t>2960258</t>
-  </si>
-  <si>
-    <t>aco1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>87645401</t>
+    <t>19211745</t>
   </si>
   <si>
     <t>2830788</t>
@@ -2256,7 +2256,7 @@
     <t>slc11a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>85550373</t>
+    <t>20736539</t>
   </si>
   <si>
     <t>1779423</t>
@@ -2265,7 +2265,7 @@
     <t>egln1 (homo sapiens)</t>
   </si>
   <si>
-    <t>83596377</t>
+    <t>20186701</t>
   </si>
   <si>
     <t>2787839</t>
@@ -2274,7 +2274,7 @@
     <t>ccr6 (homo sapiens)</t>
   </si>
   <si>
-    <t>86802674</t>
+    <t>20874857</t>
   </si>
   <si>
     <t>2788428</t>
@@ -2283,7 +2283,7 @@
     <t>ccl17 (homo sapiens)</t>
   </si>
   <si>
-    <t>85179108</t>
+    <t>19025745</t>
   </si>
   <si>
     <t>2476440</t>
@@ -2292,7 +2292,7 @@
     <t>cxcl3 (homo sapiens)</t>
   </si>
   <si>
-    <t>83406528</t>
+    <t>18814454</t>
   </si>
   <si>
     <t>2792390</t>
@@ -2301,7 +2301,7 @@
     <t>ccl21 (homo sapiens)</t>
   </si>
   <si>
-    <t>84550112</t>
+    <t>18316440</t>
   </si>
   <si>
     <t>3020701</t>
@@ -2310,10 +2310,10 @@
     <t>ftl (homo sapiens)</t>
   </si>
   <si>
-    <t>88036343</t>
-  </si>
-  <si>
-    <t>87645498</t>
+    <t>16946705</t>
+  </si>
+  <si>
+    <t>21477990</t>
   </si>
   <si>
     <t>2785885</t>
@@ -2322,7 +2322,7 @@
     <t>il10rb (homo sapiens)</t>
   </si>
   <si>
-    <t>85750793</t>
+    <t>20167015</t>
   </si>
   <si>
     <t>2787803</t>
@@ -2331,7 +2331,7 @@
     <t>ifna2 (homo sapiens)</t>
   </si>
   <si>
-    <t>83623970</t>
+    <t>18978437</t>
   </si>
   <si>
     <t>2792375</t>
@@ -2340,7 +2340,7 @@
     <t>ccl19 (homo sapiens)</t>
   </si>
   <si>
-    <t>88127522</t>
+    <t>22443535</t>
   </si>
   <si>
     <t>2792095</t>
@@ -2349,7 +2349,7 @@
     <t>ccr8 (homo sapiens)</t>
   </si>
   <si>
-    <t>88543031</t>
+    <t>22945152</t>
   </si>
   <si>
     <t>2792133</t>
@@ -2358,7 +2358,7 @@
     <t>ccl24 (homo sapiens)</t>
   </si>
   <si>
-    <t>84744697</t>
+    <t>19317366</t>
   </si>
   <si>
     <t>2228407</t>
@@ -2367,7 +2367,7 @@
     <t>mir146a (homo sapiens)</t>
   </si>
   <si>
-    <t>85804573</t>
+    <t>19776107</t>
   </si>
   <si>
     <t>3003851</t>
@@ -2376,7 +2376,7 @@
     <t>il36rn (homo sapiens)</t>
   </si>
   <si>
-    <t>83876632</t>
+    <t>17628578</t>
   </si>
   <si>
     <t>3003637</t>
@@ -2385,7 +2385,7 @@
     <t>il37 (homo sapiens)</t>
   </si>
   <si>
-    <t>84837500</t>
+    <t>19183559</t>
   </si>
   <si>
     <t>2792380</t>
@@ -2394,7 +2394,7 @@
     <t>trpm5 (homo sapiens)</t>
   </si>
   <si>
-    <t>86564804</t>
+    <t>21173896</t>
   </si>
   <si>
     <t>3004129</t>
@@ -2403,7 +2403,7 @@
     <t>tas1r3 (homo sapiens)</t>
   </si>
   <si>
-    <t>86471857</t>
+    <t>20574463</t>
   </si>
   <si>
     <t>2785326</t>
@@ -2412,7 +2412,7 @@
     <t>xcr1 (homo sapiens)</t>
   </si>
   <si>
-    <t>90463635</t>
+    <t>17105170</t>
   </si>
   <si>
     <t>2792105</t>
@@ -2421,7 +2421,7 @@
     <t>ccl15 (homo sapiens)</t>
   </si>
   <si>
-    <t>87632746</t>
+    <t>21813876</t>
   </si>
   <si>
     <t>45119</t>
@@ -2433,7 +2433,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>82057199</t>
+    <t>15850170</t>
   </si>
   <si>
     <t>indicates</t>
@@ -2445,7 +2445,7 @@
     <t>anemia</t>
   </si>
   <si>
-    <t>82056948</t>
+    <t>15849938</t>
   </si>
   <si>
     <t>treats</t>
@@ -2457,7 +2457,7 @@
     <t>blood coagulation disorders</t>
   </si>
   <si>
-    <t>82057049</t>
+    <t>15850015</t>
   </si>
   <si>
     <t>775268</t>
@@ -2466,7 +2466,7 @@
     <t>duodenal ulcer</t>
   </si>
   <si>
-    <t>82057106</t>
+    <t>15850082</t>
   </si>
   <si>
     <t>4027716</t>
@@ -2475,7 +2475,7 @@
     <t>disorder of the optic nerve</t>
   </si>
   <si>
-    <t>82057266</t>
+    <t>15850253</t>
   </si>
   <si>
     <t>5272626</t>
@@ -2484,7 +2484,7 @@
     <t>curling ulcer</t>
   </si>
   <si>
-    <t>82057108</t>
+    <t>15850084</t>
   </si>
   <si>
     <t>5172643</t>
@@ -2493,7 +2493,7 @@
     <t>foster-kennedy syndrome</t>
   </si>
   <si>
-    <t>82057264</t>
+    <t>15850251</t>
   </si>
   <si>
     <t>526068</t>
@@ -2502,7 +2502,7 @@
     <t>optic disk disorders</t>
   </si>
   <si>
-    <t>82057262</t>
+    <t>15850249</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.940341949462891</v>
+        <v>6.509437561035156</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.504199028015137</v>
+        <v>6.340939521789551</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2714,24 +2714,24 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.319886684417725</v>
+        <v>6.319990634918213</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -2755,12 +2755,12 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.283188343048096</v>
+        <v>6.283244609832764</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.276001930236816</v>
+        <v>6.2772650718688965</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -2813,12 +2813,12 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.091139316558838</v>
+        <v>6.0920186042785645</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -2842,12 +2842,12 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.07745885848999</v>
+        <v>6.091227054595947</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.076640605926514</v>
+        <v>6.091139316558838</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -2900,12 +2900,12 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.076549530029297</v>
+        <v>6.091139316558838</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.067628860473633</v>
+        <v>6.067721843719482</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -2958,12 +2958,12 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.971043586730957</v>
+        <v>6.067070960998535</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -2987,12 +2987,12 @@
         <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.816904067993164</v>
+        <v>5.971159934997559</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -3016,12 +3016,12 @@
         <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.816572666168213</v>
+        <v>5.81773042678833</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -3045,12 +3045,12 @@
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.797094345092773</v>
+        <v>5.816572666168213</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -3074,12 +3074,12 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.788875102996826</v>
+        <v>5.79951286315918</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -3103,12 +3103,12 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.744879245758057</v>
+        <v>5.788875102996826</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
@@ -3132,12 +3132,12 @@
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.744293212890625</v>
+        <v>5.74624490737915</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -3161,12 +3161,12 @@
         <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.733798980712891</v>
+        <v>5.744293212890625</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -3190,12 +3190,12 @@
         <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.656337738037109</v>
+        <v>5.658249855041504</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
@@ -3219,12 +3219,12 @@
         <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.641969680786133</v>
+        <v>5.64221715927124</v>
       </c>
       <c r="B22" t="s">
         <v>93</v>
@@ -3248,24 +3248,24 @@
         <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
         <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
         <v>97</v>
       </c>
       <c r="M22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.634477138519287</v>
+        <v>5.634728908538818</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
@@ -3295,7 +3295,7 @@
         <v>101</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -3329,7 +3329,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.605035781860352</v>
+        <v>5.607186794281006</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
@@ -3353,12 +3353,12 @@
         <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
@@ -3382,12 +3382,12 @@
         <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B27" t="s">
         <v>111</v>
@@ -3411,12 +3411,12 @@
         <v>113</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B28" t="s">
         <v>114</v>
@@ -3440,12 +3440,12 @@
         <v>116</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
@@ -3469,12 +3469,12 @@
         <v>119</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
@@ -3498,12 +3498,12 @@
         <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B31" t="s">
         <v>123</v>
@@ -3527,12 +3527,12 @@
         <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B32" t="s">
         <v>126</v>
@@ -3556,12 +3556,12 @@
         <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.604226112365723</v>
+        <v>5.606381416320801</v>
       </c>
       <c r="B33" t="s">
         <v>129</v>
@@ -3585,12 +3585,12 @@
         <v>131</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.567320346832275</v>
+        <v>5.567614555358887</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -3614,24 +3614,24 @@
         <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
         <v>135</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
         <v>136</v>
       </c>
       <c r="M34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.558108329772949</v>
+        <v>5.558408737182617</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
@@ -3655,24 +3655,24 @@
         <v>139</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s">
         <v>140</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
         <v>141</v>
       </c>
       <c r="M35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.556302547454834</v>
+        <v>5.556603908538818</v>
       </c>
       <c r="B36" t="s">
         <v>142</v>
@@ -3696,24 +3696,24 @@
         <v>144</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J36" t="s">
         <v>145</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L36" t="s">
         <v>146</v>
       </c>
       <c r="M36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.556302547454834</v>
+        <v>5.556603908538818</v>
       </c>
       <c r="B37" t="s">
         <v>147</v>
@@ -3737,7 +3737,7 @@
         <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
         <v>150</v>
@@ -3749,12 +3749,12 @@
         <v>151</v>
       </c>
       <c r="M37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.541266918182373</v>
+        <v>5.54685115814209</v>
       </c>
       <c r="B38" t="s">
         <v>152</v>
@@ -3778,12 +3778,12 @@
         <v>154</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.540329456329346</v>
+        <v>5.539389610290527</v>
       </c>
       <c r="B39" t="s">
         <v>155</v>
@@ -3807,12 +3807,12 @@
         <v>157</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.489606857299805</v>
+        <v>5.492411136627197</v>
       </c>
       <c r="B40" t="s">
         <v>158</v>
@@ -3836,12 +3836,12 @@
         <v>160</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.489254951477051</v>
+        <v>5.492061614990234</v>
       </c>
       <c r="B41" t="s">
         <v>161</v>
@@ -3865,12 +3865,12 @@
         <v>163</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.474216461181641</v>
+        <v>5.4763970375061035</v>
       </c>
       <c r="B42" t="s">
         <v>164</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.376576900482178</v>
+        <v>5.375205993652344</v>
       </c>
       <c r="B44" t="s">
         <v>171</v>
@@ -3952,12 +3952,12 @@
         <v>173</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.3729119300842285</v>
+        <v>5.371529579162598</v>
       </c>
       <c r="B45" t="s">
         <v>174</v>
@@ -3981,12 +3981,12 @@
         <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.3729119300842285</v>
+        <v>5.371529579162598</v>
       </c>
       <c r="B46" t="s">
         <v>177</v>
@@ -4010,12 +4010,12 @@
         <v>179</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.3729119300842285</v>
+        <v>5.371529579162598</v>
       </c>
       <c r="B47" t="s">
         <v>180</v>
@@ -4039,12 +4039,12 @@
         <v>182</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.3729119300842285</v>
+        <v>5.371529579162598</v>
       </c>
       <c r="B48" t="s">
         <v>183</v>
@@ -4068,7 +4068,7 @@
         <v>185</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
@@ -4097,7 +4097,7 @@
         <v>188</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -4126,7 +4126,7 @@
         <v>191</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -4155,12 +4155,12 @@
         <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.296116352081299</v>
+        <v>5.296665191650391</v>
       </c>
       <c r="B52" t="s">
         <v>195</v>
@@ -4184,12 +4184,12 @@
         <v>197</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.281601428985596</v>
+        <v>5.282168865203857</v>
       </c>
       <c r="B53" t="s">
         <v>198</v>
@@ -4213,18 +4213,18 @@
         <v>200</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
         <v>201</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.281033515930176</v>
+        <v>5.281601428985596</v>
       </c>
       <c r="B54" t="s">
         <v>202</v>
@@ -4248,7 +4248,7 @@
         <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s">
         <v>205</v>
@@ -4283,12 +4283,12 @@
         <v>208</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B56" t="s">
         <v>209</v>
@@ -4312,12 +4312,12 @@
         <v>211</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B57" t="s">
         <v>212</v>
@@ -4341,12 +4341,12 @@
         <v>214</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B58" t="s">
         <v>215</v>
@@ -4370,12 +4370,12 @@
         <v>217</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B59" t="s">
         <v>218</v>
@@ -4399,12 +4399,12 @@
         <v>220</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B60" t="s">
         <v>221</v>
@@ -4428,12 +4428,12 @@
         <v>223</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B61" t="s">
         <v>224</v>
@@ -4457,12 +4457,12 @@
         <v>226</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B62" t="s">
         <v>227</v>
@@ -4486,12 +4486,12 @@
         <v>229</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B63" t="s">
         <v>230</v>
@@ -4515,12 +4515,12 @@
         <v>232</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.243038177490234</v>
+        <v>5.243658065795898</v>
       </c>
       <c r="B64" t="s">
         <v>233</v>
@@ -4544,7 +4544,7 @@
         <v>235</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -4573,7 +4573,7 @@
         <v>238</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -4602,7 +4602,7 @@
         <v>241</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
@@ -4631,7 +4631,7 @@
         <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
@@ -4660,7 +4660,7 @@
         <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
@@ -4689,7 +4689,7 @@
         <v>250</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
@@ -4718,7 +4718,7 @@
         <v>253</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
@@ -4747,7 +4747,7 @@
         <v>256</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
@@ -4776,7 +4776,7 @@
         <v>259</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
@@ -4805,7 +4805,7 @@
         <v>262</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
@@ -4834,7 +4834,7 @@
         <v>265</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
@@ -4863,7 +4863,7 @@
         <v>268</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
@@ -4892,7 +4892,7 @@
         <v>271</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
@@ -4921,7 +4921,7 @@
         <v>274</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
@@ -4950,12 +4950,12 @@
         <v>277</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.05115270614624</v>
+        <v>5.052116394042969</v>
       </c>
       <c r="B79" t="s">
         <v>278</v>
@@ -4979,7 +4979,7 @@
         <v>280</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -5008,7 +5008,7 @@
         <v>283</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -5037,7 +5037,7 @@
         <v>286</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
@@ -5066,7 +5066,7 @@
         <v>289</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -5095,7 +5095,7 @@
         <v>292</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -5124,7 +5124,7 @@
         <v>295</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -5153,7 +5153,7 @@
         <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -5182,7 +5182,7 @@
         <v>301</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -5211,7 +5211,7 @@
         <v>304</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -5240,7 +5240,7 @@
         <v>307</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
@@ -5269,7 +5269,7 @@
         <v>310</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -5298,7 +5298,7 @@
         <v>313</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
@@ -5327,7 +5327,7 @@
         <v>316</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92">
@@ -5356,7 +5356,7 @@
         <v>319</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
@@ -5385,7 +5385,7 @@
         <v>322</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
@@ -5414,7 +5414,7 @@
         <v>325</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95">
@@ -5443,7 +5443,7 @@
         <v>328</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96">
@@ -5472,7 +5472,7 @@
         <v>331</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97">
@@ -5501,7 +5501,7 @@
         <v>334</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98">
@@ -5530,7 +5530,7 @@
         <v>337</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99">
@@ -5559,7 +5559,7 @@
         <v>340</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
@@ -5588,7 +5588,7 @@
         <v>343</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
@@ -5617,7 +5617,7 @@
         <v>346</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -5646,7 +5646,7 @@
         <v>349</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103">
@@ -5675,7 +5675,7 @@
         <v>352</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -5704,7 +5704,7 @@
         <v>355</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105">
@@ -5733,7 +5733,7 @@
         <v>358</v>
       </c>
       <c r="I105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
@@ -5762,7 +5762,7 @@
         <v>361</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -5791,7 +5791,7 @@
         <v>364</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -5820,7 +5820,7 @@
         <v>367</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -5849,7 +5849,7 @@
         <v>370</v>
       </c>
       <c r="I109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -5878,7 +5878,7 @@
         <v>373</v>
       </c>
       <c r="I110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111">
@@ -5907,7 +5907,7 @@
         <v>376</v>
       </c>
       <c r="I111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -5936,7 +5936,7 @@
         <v>379</v>
       </c>
       <c r="I112" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113">
@@ -5965,7 +5965,7 @@
         <v>382</v>
       </c>
       <c r="I113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -5994,7 +5994,7 @@
         <v>385</v>
       </c>
       <c r="I114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115">
@@ -6023,7 +6023,7 @@
         <v>388</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116">
@@ -6052,7 +6052,7 @@
         <v>391</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117">
@@ -6081,7 +6081,7 @@
         <v>394</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118">
@@ -6110,7 +6110,7 @@
         <v>397</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119">
@@ -6139,7 +6139,7 @@
         <v>400</v>
       </c>
       <c r="I119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -6168,7 +6168,7 @@
         <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121">
@@ -6197,7 +6197,7 @@
         <v>406</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -6226,7 +6226,7 @@
         <v>409</v>
       </c>
       <c r="I122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -6255,7 +6255,7 @@
         <v>412</v>
       </c>
       <c r="I123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
@@ -6284,7 +6284,7 @@
         <v>415</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -6313,7 +6313,7 @@
         <v>418</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126">
@@ -6342,7 +6342,7 @@
         <v>421</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127">
@@ -6371,7 +6371,7 @@
         <v>424</v>
       </c>
       <c r="I127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128">
@@ -6429,7 +6429,7 @@
         <v>430</v>
       </c>
       <c r="I129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130">
@@ -6458,7 +6458,7 @@
         <v>433</v>
       </c>
       <c r="I130" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131">
@@ -6487,7 +6487,7 @@
         <v>436</v>
       </c>
       <c r="I131" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132">
@@ -6516,7 +6516,7 @@
         <v>439</v>
       </c>
       <c r="I132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133">
@@ -6545,7 +6545,7 @@
         <v>442</v>
       </c>
       <c r="I133" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134">
@@ -6574,7 +6574,7 @@
         <v>445</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135">
@@ -6603,7 +6603,7 @@
         <v>448</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -6632,7 +6632,7 @@
         <v>451</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137">
@@ -6661,7 +6661,7 @@
         <v>454</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138">
@@ -6690,7 +6690,7 @@
         <v>457</v>
       </c>
       <c r="I138" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139">
@@ -6719,7 +6719,7 @@
         <v>460</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140">
@@ -6748,7 +6748,7 @@
         <v>463</v>
       </c>
       <c r="I140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141">
@@ -6777,7 +6777,7 @@
         <v>466</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142">
@@ -6806,7 +6806,7 @@
         <v>469</v>
       </c>
       <c r="I142" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143">
@@ -6835,7 +6835,7 @@
         <v>472</v>
       </c>
       <c r="I143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144">
@@ -6864,7 +6864,7 @@
         <v>475</v>
       </c>
       <c r="I144" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145">
@@ -6893,7 +6893,7 @@
         <v>478</v>
       </c>
       <c r="I145" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146">
@@ -6922,7 +6922,7 @@
         <v>481</v>
       </c>
       <c r="I146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147">
@@ -6951,12 +6951,12 @@
         <v>484</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4.2304487228393555</v>
+        <v>4.236789226531982</v>
       </c>
       <c r="B148" t="s">
         <v>485</v>
@@ -6980,7 +6980,7 @@
         <v>487</v>
       </c>
       <c r="I148" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149">
@@ -7038,7 +7038,7 @@
         <v>493</v>
       </c>
       <c r="I150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151">
@@ -7067,7 +7067,7 @@
         <v>496</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
@@ -7096,7 +7096,7 @@
         <v>499</v>
       </c>
       <c r="I152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153">
@@ -7125,7 +7125,7 @@
         <v>502</v>
       </c>
       <c r="I153" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154">
@@ -7154,7 +7154,7 @@
         <v>505</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.491501808166504</v>
+        <v>6.4912567138671875</v>
       </c>
       <c r="B2" t="s">
         <v>506</v>
@@ -7363,24 +7363,24 @@
         <v>509</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>510</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
         <v>511</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.347085952758789</v>
+        <v>6.360024929046631</v>
       </c>
       <c r="B3" t="s">
         <v>512</v>
@@ -7404,19 +7404,19 @@
         <v>514</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>515</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
         <v>516</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
         <v>517</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.305082321166992</v>
+        <v>6.307923793792725</v>
       </c>
       <c r="B4" t="s">
         <v>519</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.296116352081299</v>
+        <v>6.297760486602783</v>
       </c>
       <c r="B5" t="s">
         <v>522</v>
@@ -7480,30 +7480,30 @@
         <v>524</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>525</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
         <v>526</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>518</v>
       </c>
       <c r="N5" t="s">
         <v>527</v>
       </c>
       <c r="O5" t="s">
-        <v>518</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.2895331382751465</v>
+        <v>6.296665191650391</v>
       </c>
       <c r="B6" t="s">
         <v>528</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.2885847091674805</v>
+        <v>6.2907023429870605</v>
       </c>
       <c r="B7" t="s">
         <v>531</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.28651237487793</v>
+        <v>6.2888078689575195</v>
       </c>
       <c r="B8" t="s">
         <v>534</v>
@@ -7585,12 +7585,12 @@
         <v>536</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.2445244789123535</v>
+        <v>6.2457594871521</v>
       </c>
       <c r="B9" t="s">
         <v>537</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.190611839294434</v>
+        <v>6.191380977630615</v>
       </c>
       <c r="B10" t="s">
         <v>540</v>
@@ -7643,7 +7643,7 @@
         <v>542</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>543</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.182271957397461</v>
+        <v>6.184904098510742</v>
       </c>
       <c r="B11" t="s">
         <v>544</v>
@@ -7678,12 +7678,12 @@
         <v>546</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.173259258270264</v>
+        <v>6.176453113555908</v>
       </c>
       <c r="B12" t="s">
         <v>547</v>
@@ -7707,24 +7707,24 @@
         <v>549</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="J12" t="s">
         <v>550</v>
       </c>
       <c r="K12" t="s">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
         <v>551</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.1350531578063965</v>
+        <v>6.142702102661133</v>
       </c>
       <c r="B13" t="s">
         <v>552</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.099939346313477</v>
+        <v>6.102262020111084</v>
       </c>
       <c r="B14" t="s">
         <v>555</v>
@@ -7777,12 +7777,12 @@
         <v>557</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.094034194946289</v>
+        <v>6.096214771270752</v>
       </c>
       <c r="B15" t="s">
         <v>558</v>
@@ -7806,12 +7806,12 @@
         <v>560</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.088313102722168</v>
+        <v>6.089109897613525</v>
       </c>
       <c r="B16" t="s">
         <v>561</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.0749993324279785</v>
+        <v>6.07645845413208</v>
       </c>
       <c r="B17" t="s">
         <v>564</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.0604143142700195</v>
+        <v>6.065112590789795</v>
       </c>
       <c r="B18" t="s">
         <v>567</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.055855751037598</v>
+        <v>6.055091381072998</v>
       </c>
       <c r="B19" t="s">
         <v>570</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.024998664855957</v>
+        <v>6.045518398284912</v>
       </c>
       <c r="B20" t="s">
         <v>573</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.021396160125732</v>
+        <v>6.027349472045898</v>
       </c>
       <c r="B21" t="s">
         <v>576</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.002382278442383</v>
+        <v>6.00700044631958</v>
       </c>
       <c r="B22" t="s">
         <v>579</v>
@@ -8009,18 +8009,18 @@
         <v>581</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>582</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.997823238372803</v>
+        <v>5.999021530151367</v>
       </c>
       <c r="B23" t="s">
         <v>583</v>
@@ -8044,12 +8044,12 @@
         <v>585</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.95327615737915</v>
+        <v>5.954242706298828</v>
       </c>
       <c r="B24" t="s">
         <v>586</v>
@@ -8073,7 +8073,7 @@
         <v>588</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
         <v>589</v>
@@ -8085,12 +8085,12 @@
         <v>590</v>
       </c>
       <c r="M24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.951458930969238</v>
+        <v>5.951216220855713</v>
       </c>
       <c r="B25" t="s">
         <v>591</v>
@@ -8114,12 +8114,12 @@
         <v>593</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.949145793914795</v>
+        <v>5.950729846954346</v>
       </c>
       <c r="B26" t="s">
         <v>594</v>
@@ -8143,12 +8143,12 @@
         <v>596</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.925827503204346</v>
+        <v>5.9501214027404785</v>
       </c>
       <c r="B27" t="s">
         <v>597</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.919339656829834</v>
+        <v>5.924020767211914</v>
       </c>
       <c r="B28" t="s">
         <v>600</v>
@@ -8201,25 +8201,25 @@
         <v>602</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
         <v>603</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="L28" t="s">
         <v>604</v>
       </c>
       <c r="M28" t="s">
-        <v>518</v>
+        <v>31</v>
       </c>
       <c r="N28" t="s">
         <v>605</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -8253,7 +8253,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.906200408935547</v>
+        <v>5.9025468826293945</v>
       </c>
       <c r="B30" t="s">
         <v>609</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.8664350509643555</v>
+        <v>5.8679094314575195</v>
       </c>
       <c r="B31" t="s">
         <v>612</v>
@@ -8306,12 +8306,12 @@
         <v>614</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.841984748840332</v>
+        <v>5.850339889526367</v>
       </c>
       <c r="B32" t="s">
         <v>615</v>
@@ -8335,12 +8335,12 @@
         <v>617</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.820037364959717</v>
+        <v>5.822658538818359</v>
       </c>
       <c r="B33" t="s">
         <v>618</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.816075325012207</v>
+        <v>5.821677207946777</v>
       </c>
       <c r="B34" t="s">
         <v>622</v>
@@ -8393,12 +8393,12 @@
         <v>624</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.785329818725586</v>
+        <v>5.7856855392456055</v>
       </c>
       <c r="B35" t="s">
         <v>625</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.779776573181152</v>
+        <v>5.782830715179443</v>
       </c>
       <c r="B36" t="s">
         <v>628</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.773237705230713</v>
+        <v>5.776519775390625</v>
       </c>
       <c r="B37" t="s">
         <v>631</v>
@@ -8480,12 +8480,12 @@
         <v>633</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.771954536437988</v>
+        <v>5.775974273681641</v>
       </c>
       <c r="B38" t="s">
         <v>634</v>
@@ -8509,12 +8509,12 @@
         <v>636</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.766412734985352</v>
+        <v>5.769930839538574</v>
       </c>
       <c r="B39" t="s">
         <v>637</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.766226768493652</v>
+        <v>5.767155647277832</v>
       </c>
       <c r="B40" t="s">
         <v>640</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.746439456939697</v>
+        <v>5.747605800628662</v>
       </c>
       <c r="B41" t="s">
         <v>643</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.7399678230285645</v>
+        <v>5.744488716125488</v>
       </c>
       <c r="B42" t="s">
         <v>646</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.736993789672852</v>
+        <v>5.738978862762451</v>
       </c>
       <c r="B43" t="s">
         <v>649</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.736197471618652</v>
+        <v>5.734199523925781</v>
       </c>
       <c r="B44" t="s">
         <v>652</v>
@@ -8688,7 +8688,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.72672700881958</v>
+        <v>5.7277445793151855</v>
       </c>
       <c r="B45" t="s">
         <v>655</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.725503444671631</v>
+        <v>5.726115703582764</v>
       </c>
       <c r="B46" t="s">
         <v>658</v>
@@ -8741,25 +8741,25 @@
         <v>660</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s">
         <v>661</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
         <v>662</v>
       </c>
       <c r="M46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
         <v>663</v>
       </c>
       <c r="O46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -8793,7 +8793,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.699837684631348</v>
+        <v>5.707357406616211</v>
       </c>
       <c r="B48" t="s">
         <v>667</v>
@@ -8817,12 +8817,12 @@
         <v>669</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.67760705947876</v>
+        <v>5.700054168701172</v>
       </c>
       <c r="B49" t="s">
         <v>670</v>
@@ -8846,12 +8846,12 @@
         <v>672</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.676007270812988</v>
+        <v>5.678062915802002</v>
       </c>
       <c r="B50" t="s">
         <v>673</v>
@@ -8877,22 +8877,16 @@
       <c r="I50" t="s">
         <v>31</v>
       </c>
-      <c r="J50" t="s">
-        <v>676</v>
-      </c>
-      <c r="K50" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.6741719245910645</v>
+        <v>5.677834987640381</v>
       </c>
       <c r="B51" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" t="s">
         <v>677</v>
-      </c>
-      <c r="C51" t="s">
-        <v>678</v>
       </c>
       <c r="D51" t="s">
         <v>508</v>
@@ -8907,21 +8901,21 @@
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.672328948974609</v>
+        <v>5.677834987640381</v>
       </c>
       <c r="B52" t="s">
+        <v>679</v>
+      </c>
+      <c r="C52" t="s">
         <v>680</v>
-      </c>
-      <c r="C52" t="s">
-        <v>681</v>
       </c>
       <c r="D52" t="s">
         <v>508</v>
@@ -8936,15 +8930,21 @@
         <v>27</v>
       </c>
       <c r="H52" t="s">
+        <v>681</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="s">
         <v>682</v>
       </c>
-      <c r="I52" t="s">
-        <v>38</v>
+      <c r="K52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.646158695220947</v>
+        <v>5.647627353668213</v>
       </c>
       <c r="B53" t="s">
         <v>683</v>
@@ -8968,12 +8968,12 @@
         <v>685</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.64097785949707</v>
+        <v>5.643205642700195</v>
       </c>
       <c r="B54" t="s">
         <v>686</v>
@@ -8997,12 +8997,12 @@
         <v>688</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.640729904174805</v>
+        <v>5.640481472015381</v>
       </c>
       <c r="B55" t="s">
         <v>689</v>
@@ -9026,12 +9026,12 @@
         <v>691</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.620136260986328</v>
+        <v>5.619354248046875</v>
       </c>
       <c r="B56" t="s">
         <v>692</v>
@@ -9055,12 +9055,12 @@
         <v>694</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.589949607849121</v>
+        <v>5.592454433441162</v>
       </c>
       <c r="B57" t="s">
         <v>695</v>
@@ -9084,12 +9084,12 @@
         <v>697</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.5820631980896</v>
+        <v>5.591342926025391</v>
       </c>
       <c r="B58" t="s">
         <v>698</v>
@@ -9113,12 +9113,12 @@
         <v>700</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.547159194946289</v>
+        <v>5.552972316741943</v>
       </c>
       <c r="B59" t="s">
         <v>701</v>
@@ -9142,7 +9142,7 @@
         <v>703</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J59" t="s">
         <v>704</v>
@@ -9154,12 +9154,12 @@
         <v>705</v>
       </c>
       <c r="M59" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.545307159423828</v>
+        <v>5.551145076751709</v>
       </c>
       <c r="B60" t="s">
         <v>706</v>
@@ -9183,12 +9183,12 @@
         <v>708</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.463892936706543</v>
+        <v>5.464638710021973</v>
       </c>
       <c r="B61" t="s">
         <v>709</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.460522174835205</v>
+        <v>5.4620232582092285</v>
       </c>
       <c r="B62" t="s">
         <v>712</v>
@@ -9241,12 +9241,12 @@
         <v>714</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.440908908843994</v>
+        <v>5.441695213317871</v>
       </c>
       <c r="B63" t="s">
         <v>715</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.439727306365967</v>
+        <v>5.440515518188477</v>
       </c>
       <c r="B64" t="s">
         <v>718</v>
@@ -9299,18 +9299,24 @@
         <v>720</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="J64" t="s">
+        <v>721</v>
+      </c>
+      <c r="K64" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.43735408782959</v>
+        <v>5.440121650695801</v>
       </c>
       <c r="B65" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C65" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D65" t="s">
         <v>508</v>
@@ -9325,21 +9331,15 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" t="s">
-        <v>724</v>
-      </c>
-      <c r="K65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.428539752960205</v>
+        <v>5.432969093322754</v>
       </c>
       <c r="B66" t="s">
         <v>725</v>
@@ -9363,12 +9363,12 @@
         <v>727</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.420368194580078</v>
+        <v>5.424881458282471</v>
       </c>
       <c r="B67" t="s">
         <v>728</v>
@@ -9392,24 +9392,18 @@
         <v>730</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" t="s">
-        <v>731</v>
-      </c>
-      <c r="K67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.416640281677246</v>
+        <v>5.421192646026611</v>
       </c>
       <c r="B68" t="s">
+        <v>731</v>
+      </c>
+      <c r="C68" t="s">
         <v>732</v>
-      </c>
-      <c r="C68" t="s">
-        <v>733</v>
       </c>
       <c r="D68" t="s">
         <v>508</v>
@@ -9424,15 +9418,21 @@
         <v>27</v>
       </c>
       <c r="H68" t="s">
+        <v>733</v>
+      </c>
+      <c r="I68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
         <v>734</v>
       </c>
-      <c r="I68" t="s">
-        <v>38</v>
+      <c r="K68" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.4137187004089355</v>
+        <v>5.416640281677246</v>
       </c>
       <c r="B69" t="s">
         <v>735</v>
@@ -9456,7 +9456,7 @@
         <v>737</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
@@ -9485,12 +9485,12 @@
         <v>740</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.405261039733887</v>
+        <v>5.404833793640137</v>
       </c>
       <c r="B71" t="s">
         <v>741</v>
@@ -9514,12 +9514,12 @@
         <v>743</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.386944770812988</v>
+        <v>5.388722896575928</v>
       </c>
       <c r="B72" t="s">
         <v>744</v>
@@ -9543,12 +9543,12 @@
         <v>746</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.382467269897461</v>
+        <v>5.383366584777832</v>
       </c>
       <c r="B73" t="s">
         <v>747</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.377943515777588</v>
+        <v>5.3783979415893555</v>
       </c>
       <c r="B74" t="s">
         <v>750</v>
@@ -9601,12 +9601,12 @@
         <v>752</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.371529579162598</v>
+        <v>5.376120567321777</v>
       </c>
       <c r="B75" t="s">
         <v>753</v>
@@ -9630,12 +9630,12 @@
         <v>755</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.36782169342041</v>
+        <v>5.368751525878906</v>
       </c>
       <c r="B76" t="s">
         <v>756</v>
@@ -9688,12 +9688,12 @@
         <v>761</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5.324796676635742</v>
+        <v>5.328888893127441</v>
       </c>
       <c r="B78" t="s">
         <v>762</v>
@@ -9723,12 +9723,12 @@
         <v>765</v>
       </c>
       <c r="K78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.225955009460449</v>
+        <v>5.246129035949707</v>
       </c>
       <c r="B79" t="s">
         <v>766</v>
@@ -9752,7 +9752,7 @@
         <v>768</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -9781,12 +9781,12 @@
         <v>771</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.196590423583984</v>
+        <v>5.198657035827637</v>
       </c>
       <c r="B81" t="s">
         <v>772</v>
@@ -9810,7 +9810,7 @@
         <v>774</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
@@ -9839,12 +9839,12 @@
         <v>777</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.995635032653809</v>
+        <v>5.0</v>
       </c>
       <c r="B83" t="s">
         <v>778</v>
@@ -9868,12 +9868,12 @@
         <v>780</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.980003356933594</v>
+        <v>4.990116596221924</v>
       </c>
       <c r="B84" t="s">
         <v>781</v>
@@ -9926,7 +9926,7 @@
         <v>786</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -9955,12 +9955,12 @@
         <v>789</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.953034400939941</v>
+        <v>4.955447196960449</v>
       </c>
       <c r="B87" t="s">
         <v>790</v>
@@ -9984,12 +9984,12 @@
         <v>792</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.949389934539795</v>
+        <v>4.953034400939941</v>
       </c>
       <c r="B88" t="s">
         <v>793</v>
@@ -10013,7 +10013,7 @@
         <v>795</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
@@ -10042,7 +10042,7 @@
         <v>798</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -10071,7 +10071,7 @@
         <v>801</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -10166,7 +10166,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.641672611236572</v>
+        <v>6.64192008972168</v>
       </c>
       <c r="B2" t="s">
         <v>802</v>
@@ -10195,7 +10195,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.262035369873047</v>
+        <v>6.267054557800293</v>
       </c>
       <c r="B3" t="s">
         <v>807</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.872593402862549</v>
+        <v>5.874191761016846</v>
       </c>
       <c r="B4" t="s">
         <v>811</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.708845615386963</v>
+        <v>5.710329055786133</v>
       </c>
       <c r="B5" t="s">
         <v>814</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.547159194946289</v>
+        <v>5.549309730529785</v>
       </c>
       <c r="B6" t="s">
         <v>817</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.244277000427246</v>
+        <v>5.2448954582214355</v>
       </c>
       <c r="B7" t="s">
         <v>820</v>
